--- a/do_an/dataset/employee.xlsx
+++ b/do_an/dataset/employee.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="347">
   <si>
     <t>Employee ID</t>
   </si>
@@ -76,97 +76,76 @@
     <t>Đà Nẵng</t>
   </si>
   <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>Hoàng Văn Em</t>
-  </si>
-  <si>
-    <t>Em567</t>
-  </si>
-  <si>
-    <t>Pass5@123</t>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>Ngô Thị Phong</t>
+  </si>
+  <si>
+    <t>Phong678</t>
+  </si>
+  <si>
+    <t>Pass6@123</t>
   </si>
   <si>
     <t>staff</t>
   </si>
   <si>
-    <t>em@company.com</t>
+    <t>phong@company.com</t>
+  </si>
+  <si>
+    <t>0987600006</t>
+  </si>
+  <si>
+    <t>Bắc Ninh</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>Đinh Văn Gia</t>
+  </si>
+  <si>
+    <t>Gia789</t>
+  </si>
+  <si>
+    <t>Pass7@123</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>gia@company.com</t>
+  </si>
+  <si>
+    <t>Shift 1</t>
+  </si>
+  <si>
+    <t>0987600007</t>
+  </si>
+  <si>
+    <t>Quảng Ninh</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>Bùi Thị Hiếu</t>
+  </si>
+  <si>
+    <t>Hieu890</t>
+  </si>
+  <si>
+    <t>Pass8@123</t>
+  </si>
+  <si>
+    <t>hieu@company.com</t>
   </si>
   <si>
     <t>Undergraduated</t>
   </si>
   <si>
     <t>Shift 2</t>
-  </si>
-  <si>
-    <t>0987600005</t>
-  </si>
-  <si>
-    <t>Cần Thơ</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>Ngô Thị Phong</t>
-  </si>
-  <si>
-    <t>Phong678</t>
-  </si>
-  <si>
-    <t>Pass6@123</t>
-  </si>
-  <si>
-    <t>phong@company.com</t>
-  </si>
-  <si>
-    <t>0987600006</t>
-  </si>
-  <si>
-    <t>Bắc Ninh</t>
-  </si>
-  <si>
-    <t>U7</t>
-  </si>
-  <si>
-    <t>Đinh Văn Gia</t>
-  </si>
-  <si>
-    <t>Gia789</t>
-  </si>
-  <si>
-    <t>Pass7@123</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>gia@company.com</t>
-  </si>
-  <si>
-    <t>Shift 1</t>
-  </si>
-  <si>
-    <t>0987600007</t>
-  </si>
-  <si>
-    <t>Quảng Ninh</t>
-  </si>
-  <si>
-    <t>U8</t>
-  </si>
-  <si>
-    <t>Bùi Thị Hiếu</t>
-  </si>
-  <si>
-    <t>Hieu890</t>
-  </si>
-  <si>
-    <t>Pass8@123</t>
-  </si>
-  <si>
-    <t>hieu@company.com</t>
   </si>
   <si>
     <t>0987600008</t>
@@ -1416,7 +1395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1509,42 +1488,42 @@
         <v>25</v>
       </c>
       <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
         <v>35</v>
@@ -1567,13 +1546,13 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
         <v>41</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>42</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
       </c>
       <c r="H5" t="s">
         <v>43</v>
@@ -1599,16 +1578,16 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
         <v>51</v>
@@ -1637,10 +1616,10 @@
         <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I7" t="s">
         <v>58</v>
@@ -1663,13 +1642,13 @@
         <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
         <v>64</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
         <v>43</v>
@@ -1695,16 +1674,16 @@
         <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
         <v>71</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s">
         <v>72</v>
@@ -1727,13 +1706,13 @@
         <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
         <v>78</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s">
         <v>43</v>
@@ -1759,16 +1738,16 @@
         <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
         <v>85</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I11" t="s">
         <v>86</v>
@@ -1791,13 +1770,13 @@
         <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
         <v>92</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H12" t="s">
         <v>43</v>
@@ -1823,16 +1802,16 @@
         <v>98</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s">
         <v>99</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I13" t="s">
         <v>100</v>
@@ -1855,13 +1834,13 @@
         <v>105</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
         <v>106</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s">
         <v>43</v>
@@ -1887,16 +1866,16 @@
         <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F15" t="s">
         <v>113</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I15" t="s">
         <v>114</v>
@@ -1919,13 +1898,13 @@
         <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
         <v>120</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H16" t="s">
         <v>43</v>
@@ -1951,16 +1930,16 @@
         <v>126</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
         <v>127</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H17" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I17" t="s">
         <v>128</v>
@@ -1983,13 +1962,13 @@
         <v>133</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
         <v>134</v>
       </c>
       <c r="G18" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H18" t="s">
         <v>43</v>
@@ -2015,16 +1994,16 @@
         <v>140</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F19" t="s">
         <v>141</v>
       </c>
       <c r="G19" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H19" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I19" t="s">
         <v>142</v>
@@ -2047,13 +2026,13 @@
         <v>147</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
         <v>148</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H20" t="s">
         <v>43</v>
@@ -2079,16 +2058,16 @@
         <v>154</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F21" t="s">
         <v>155</v>
       </c>
       <c r="G21" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H21" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I21" t="s">
         <v>156</v>
@@ -2111,13 +2090,13 @@
         <v>161</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s">
         <v>162</v>
       </c>
       <c r="G22" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H22" t="s">
         <v>43</v>
@@ -2143,16 +2122,16 @@
         <v>168</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F23" t="s">
         <v>169</v>
       </c>
       <c r="G23" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H23" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I23" t="s">
         <v>170</v>
@@ -2175,13 +2154,13 @@
         <v>175</v>
       </c>
       <c r="E24" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
         <v>176</v>
       </c>
       <c r="G24" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H24" t="s">
         <v>43</v>
@@ -2207,16 +2186,16 @@
         <v>182</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F25" t="s">
         <v>183</v>
       </c>
       <c r="G25" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H25" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I25" t="s">
         <v>184</v>
@@ -2239,13 +2218,13 @@
         <v>189</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F26" t="s">
         <v>190</v>
       </c>
       <c r="G26" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H26" t="s">
         <v>43</v>
@@ -2271,16 +2250,16 @@
         <v>196</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F27" t="s">
         <v>197</v>
       </c>
       <c r="G27" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H27" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I27" t="s">
         <v>198</v>
@@ -2303,13 +2282,13 @@
         <v>203</v>
       </c>
       <c r="E28" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F28" t="s">
         <v>204</v>
       </c>
       <c r="G28" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H28" t="s">
         <v>43</v>
@@ -2335,16 +2314,16 @@
         <v>210</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F29" t="s">
         <v>211</v>
       </c>
       <c r="G29" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H29" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I29" t="s">
         <v>212</v>
@@ -2367,13 +2346,13 @@
         <v>217</v>
       </c>
       <c r="E30" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F30" t="s">
         <v>218</v>
       </c>
       <c r="G30" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H30" t="s">
         <v>43</v>
@@ -2399,16 +2378,16 @@
         <v>224</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F31" t="s">
         <v>225</v>
       </c>
       <c r="G31" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H31" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I31" t="s">
         <v>226</v>
@@ -2431,13 +2410,13 @@
         <v>231</v>
       </c>
       <c r="E32" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F32" t="s">
         <v>232</v>
       </c>
       <c r="G32" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H32" t="s">
         <v>43</v>
@@ -2463,16 +2442,16 @@
         <v>238</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F33" t="s">
         <v>239</v>
       </c>
       <c r="G33" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H33" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I33" t="s">
         <v>240</v>
@@ -2495,13 +2474,13 @@
         <v>245</v>
       </c>
       <c r="E34" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F34" t="s">
         <v>246</v>
       </c>
       <c r="G34" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H34" t="s">
         <v>43</v>
@@ -2527,16 +2506,16 @@
         <v>252</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F35" t="s">
         <v>253</v>
       </c>
       <c r="G35" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H35" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I35" t="s">
         <v>254</v>
@@ -2559,13 +2538,13 @@
         <v>259</v>
       </c>
       <c r="E36" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F36" t="s">
         <v>260</v>
       </c>
       <c r="G36" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H36" t="s">
         <v>43</v>
@@ -2591,16 +2570,16 @@
         <v>266</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F37" t="s">
         <v>267</v>
       </c>
       <c r="G37" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H37" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I37" t="s">
         <v>268</v>
@@ -2623,13 +2602,13 @@
         <v>273</v>
       </c>
       <c r="E38" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F38" t="s">
         <v>274</v>
       </c>
       <c r="G38" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H38" t="s">
         <v>43</v>
@@ -2655,16 +2634,16 @@
         <v>280</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F39" t="s">
         <v>281</v>
       </c>
       <c r="G39" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H39" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I39" t="s">
         <v>282</v>
@@ -2687,13 +2666,13 @@
         <v>287</v>
       </c>
       <c r="E40" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F40" t="s">
         <v>288</v>
       </c>
       <c r="G40" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H40" t="s">
         <v>43</v>
@@ -2719,16 +2698,16 @@
         <v>294</v>
       </c>
       <c r="E41" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F41" t="s">
         <v>295</v>
       </c>
       <c r="G41" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H41" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I41" t="s">
         <v>296</v>
@@ -2751,13 +2730,13 @@
         <v>301</v>
       </c>
       <c r="E42" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F42" t="s">
         <v>302</v>
       </c>
       <c r="G42" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H42" t="s">
         <v>43</v>
@@ -2783,16 +2762,16 @@
         <v>308</v>
       </c>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F43" t="s">
         <v>309</v>
       </c>
       <c r="G43" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H43" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I43" t="s">
         <v>310</v>
@@ -2815,13 +2794,13 @@
         <v>315</v>
       </c>
       <c r="E44" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F44" t="s">
         <v>316</v>
       </c>
       <c r="G44" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H44" t="s">
         <v>43</v>
@@ -2847,16 +2826,16 @@
         <v>322</v>
       </c>
       <c r="E45" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F45" t="s">
         <v>323</v>
       </c>
       <c r="G45" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H45" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I45" t="s">
         <v>324</v>
@@ -2879,13 +2858,13 @@
         <v>329</v>
       </c>
       <c r="E46" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F46" t="s">
         <v>330</v>
       </c>
       <c r="G46" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H46" t="s">
         <v>43</v>
@@ -2911,16 +2890,16 @@
         <v>336</v>
       </c>
       <c r="E47" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F47" t="s">
         <v>337</v>
       </c>
       <c r="G47" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H47" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I47" t="s">
         <v>338</v>
@@ -2943,7 +2922,7 @@
         <v>343</v>
       </c>
       <c r="E48" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F48" t="s">
         <v>344</v>
@@ -2952,45 +2931,13 @@
         <v>16</v>
       </c>
       <c r="H48" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I48" t="s">
         <v>345</v>
       </c>
       <c r="J48" t="s">
         <v>346</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" t="s">
-        <v>347</v>
-      </c>
-      <c r="B49" t="s">
-        <v>348</v>
-      </c>
-      <c r="C49" t="s">
-        <v>349</v>
-      </c>
-      <c r="D49" t="s">
-        <v>350</v>
-      </c>
-      <c r="E49" t="s">
-        <v>41</v>
-      </c>
-      <c r="F49" t="s">
-        <v>351</v>
-      </c>
-      <c r="G49" t="s">
-        <v>16</v>
-      </c>
-      <c r="H49" t="s">
-        <v>43</v>
-      </c>
-      <c r="I49" t="s">
-        <v>352</v>
-      </c>
-      <c r="J49" t="s">
-        <v>353</v>
       </c>
     </row>
   </sheetData>
